--- a/biology/Biologie cellulaire et moléculaire/Amplificateur_(biologie)/Amplificateur_(biologie).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Amplificateur_(biologie)/Amplificateur_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un amplificateur (en anglais enhancer) est une région d'ADN (séquence régulatrice) qui peut fixer des protéines pour stimuler la transcription d'un gène. Un gène peut posséder plusieurs amplificateurs qui sont généralement situés assez loin du gène (jusqu'à 100 000 nucléotides).
 Le gène et l'amplificateur peuvent aussi ne pas être forcément proches l'un de l'autre et même être sur deux chromosomes différents. Cependant le repliement de l'ADN dans le noyau leur permet une proximité physique.
